--- a/SCH-STH/Impact assessments/DRC/cd_sch_sth_baseline_3_kato_katz_202202.xlsx
+++ b/SCH-STH/Impact assessments/DRC/cd_sch_sth_baseline_3_kato_katz_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -54,6 +54,9 @@
     <t>choice_filter</t>
   </si>
   <si>
+    <t>read_only</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
@@ -90,6 +93,12 @@
     <t xml:space="preserve">Village (niveau admin 5) </t>
   </si>
   <si>
+    <t>k_ecole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de l’école </t>
+  </si>
+  <si>
     <t>k_code_ecole</t>
   </si>
   <si>
@@ -99,39 +108,6 @@
     <t>Code à trois chiffre. Ex : 001</t>
   </si>
   <si>
-    <t>k_school_id</t>
-  </si>
-  <si>
-    <t>Entrer le code de l'école</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à deux chiffres entre 99 et 901</t>
-  </si>
-  <si>
-    <t>select_one p_IDMethod</t>
-  </si>
-  <si>
-    <t>k_IDType</t>
-  </si>
-  <si>
-    <t>Est-ce que le code barre du test de diagnostique a besoin d'être scanner?</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>k_BarcodeID</t>
-  </si>
-  <si>
-    <t>Scanner le code barre</t>
-  </si>
-  <si>
-    <t>${k_IDType} = 'Scanner'</t>
-  </si>
-  <si>
     <t>k_GenerateID</t>
   </si>
   <si>
@@ -144,9 +120,6 @@
     <t>Le format doit être 123-1234-567</t>
   </si>
   <si>
-    <t>${k_IDType} != 'Scanner'</t>
-  </si>
-  <si>
     <t>k_GenerateID2</t>
   </si>
   <si>
@@ -162,49 +135,61 @@
     <t>k_sch_man_sa</t>
   </si>
   <si>
-    <t>Schistosoma mansoni (oeufs) - Slide A</t>
-  </si>
-  <si>
-    <t>k_sch_man_sb</t>
-  </si>
-  <si>
-    <t>Schistosoma mansoni (oeufs) - Slide B</t>
+    <t>Schistosoma mansoni (oeufs)</t>
+  </si>
+  <si>
+    <t>k_sch_man_intensity</t>
+  </si>
+  <si>
+    <t>Intensité - Schistosoma mansoni (oeufs)</t>
+  </si>
+  <si>
+    <t>${k_sch_man_sa} * 24</t>
   </si>
   <si>
     <t>k_ascaris_lumb_sa</t>
   </si>
   <si>
-    <t>Ascaris lumbricoides (œufs) - Slide A</t>
-  </si>
-  <si>
-    <t>k_ascaris_lumb_sb</t>
-  </si>
-  <si>
-    <t>Ascaris lumbricoides (œufs) - Slide B</t>
+    <t>Ascaris lumbricoides (œufs)</t>
+  </si>
+  <si>
+    <t>k_ascaris_lumb_intensity</t>
+  </si>
+  <si>
+    <t>Intensité - Ascaris lumbricoides (œufs)</t>
+  </si>
+  <si>
+    <t>${k_ascaris_lumb_sa} * 24</t>
   </si>
   <si>
     <t>k_hookworm_sa</t>
   </si>
   <si>
-    <t>Ankylostome - Slide A</t>
-  </si>
-  <si>
-    <t>k_hookworm_sb</t>
-  </si>
-  <si>
-    <t>Ankylostome - Slide B</t>
+    <t>Ankylostome</t>
+  </si>
+  <si>
+    <t>k_hookworm_intensity</t>
+  </si>
+  <si>
+    <t>Intensité - Ankylostome</t>
+  </si>
+  <si>
+    <t>${k_hookworm_sa} * 24</t>
   </si>
   <si>
     <t>k_trichuris_sa</t>
   </si>
   <si>
-    <t>Trichocéphale trichura - Slide A</t>
-  </si>
-  <si>
-    <t>k_trichuris_sb</t>
-  </si>
-  <si>
-    <t>Trichocéphale trichura - Slide B</t>
+    <t>Trichocéphale trichura</t>
+  </si>
+  <si>
+    <t>k_trichuris_intensity</t>
+  </si>
+  <si>
+    <t>Intensité - Trichocéphale trichura</t>
+  </si>
+  <si>
+    <t>${k_trichuris_sa} * 24</t>
   </si>
   <si>
     <t>k_other_name_1</t>
@@ -213,16 +198,19 @@
     <t>Autre (nom)</t>
   </si>
   <si>
-    <t>k_other_quantity_1sa</t>
-  </si>
-  <si>
-    <t>Autre quantité - Slide A</t>
-  </si>
-  <si>
-    <t>k_other_quantity_1sb</t>
-  </si>
-  <si>
-    <t>Autre quantité - Slide B</t>
+    <t>k_other_quantity_1</t>
+  </si>
+  <si>
+    <t>Autre quantité</t>
+  </si>
+  <si>
+    <t>k_other_quantity1_intensity</t>
+  </si>
+  <si>
+    <t>Intensité - Autre</t>
+  </si>
+  <si>
+    <t>${k_other_quantity_1} * 24</t>
   </si>
   <si>
     <t>k_other_name_2</t>
@@ -231,16 +219,19 @@
     <t>Autre 2 (nom)</t>
   </si>
   <si>
-    <t>k_other_quantity_2sa</t>
-  </si>
-  <si>
-    <t>Autre 2 quantité - Slide A</t>
-  </si>
-  <si>
-    <t>k_other_quantity_2sb</t>
-  </si>
-  <si>
-    <t>Autre 2 quantité - Slide B</t>
+    <t>k_other_quantity_2</t>
+  </si>
+  <si>
+    <t>Autre 2 quantité</t>
+  </si>
+  <si>
+    <t>k_other_quantity2_intensity</t>
+  </si>
+  <si>
+    <t>Intensité - Autre 2</t>
+  </si>
+  <si>
+    <t>${k_other_quantity_2} * 24</t>
   </si>
   <si>
     <t>text</t>
@@ -288,10 +279,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>3. SCH/STH - Kato Katz</t>
-  </si>
-  <si>
-    <t>cd_sch_sth_baseline_3_kato_katz_202202</t>
+    <t>3. SCH/STH - Kato Katz V2</t>
+  </si>
+  <si>
+    <t>cd_sch_sth_baseline_3_kato_katz_202202_v2</t>
   </si>
   <si>
     <t>French</t>
@@ -303,11 +294,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,22 +330,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,10 +398,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,11 +466,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,74 +480,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -489,187 +496,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,6 +701,65 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,65 +796,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -796,144 +803,150 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,17 +1003,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1043,11 +1056,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -1323,14 +1338,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1343,13 +1358,13 @@
     <col min="6" max="6" width="16.8740740740741" style="12" customWidth="1"/>
     <col min="7" max="7" width="29.5037037037037" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.6222222222222" customWidth="1"/>
+    <col min="9" max="9" width="19.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="9.74814814814815" customWidth="1"/>
     <col min="11" max="11" width="13.8740740740741" customWidth="1"/>
     <col min="12" max="12" width="36.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:12">
+    <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1386,44 +1401,47 @@
       <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="28.5" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="10"/>
@@ -1432,20 +1450,20 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:12">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="10"/>
@@ -1454,376 +1472,387 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:12">
       <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:12">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
+    <row r="7" s="3" customFormat="1" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="19"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="28.5" spans="1:12">
       <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:12">
-      <c r="A9" s="7" t="s">
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" s="11" customFormat="1" spans="1:12">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="28.5" spans="1:12">
+    <row r="10" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="C11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" s="11" customFormat="1" spans="1:12">
-      <c r="A11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="28.5" spans="1:12">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:12">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="J13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:12">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:12">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="C14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
       <c r="J15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:12">
       <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:12">
-      <c r="A17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="J17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:12">
-      <c r="A18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" ht="28.5" spans="1:12">
+      <c r="A19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:12">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" ht="28.5" spans="1:13">
+      <c r="A20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
       <c r="F20" s="17"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-    </row>
-    <row r="21" ht="28.5" spans="1:12">
+      <c r="M20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>65</v>
@@ -1835,7 +1864,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="17"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="8"/>
       <c r="J21" s="10"/>
       <c r="K21" s="8"/>
@@ -1843,7 +1872,7 @@
     </row>
     <row r="22" ht="28.5" spans="1:12">
       <c r="A22" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>67</v>
@@ -1855,15 +1884,15 @@
       <c r="E22" s="8"/>
       <c r="F22" s="17"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="8"/>
       <c r="J22" s="10"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" ht="28.5" spans="1:13">
       <c r="A23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>69</v>
@@ -1875,107 +1904,72 @@
       <c r="E23" s="8"/>
       <c r="F23" s="17"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="J23" s="10"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-    </row>
-    <row r="24" ht="28.5" spans="1:12">
-      <c r="A24" s="17" t="s">
-        <v>12</v>
+      <c r="M23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
       <c r="F24" s="17"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="22"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="8"/>
       <c r="J24" s="10"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" ht="28.5" spans="1:12">
-      <c r="A25" s="17" t="s">
-        <v>12</v>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C25" s="18"/>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
       <c r="F25" s="17"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="8"/>
       <c r="J25" s="10"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="7" t="s">
-        <v>75</v>
+      <c r="A26" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C26" s="18"/>
       <c r="D26" s="9"/>
       <c r="E26" s="8"/>
       <c r="F26" s="17"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="22"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="8"/>
       <c r="J26" s="10"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2004,7 +1998,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2015,24 +2009,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2044,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2062,24 +2056,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/DRC/cd_sch_sth_baseline_3_kato_katz_202202.xlsx
+++ b/SCH-STH/Impact assessments/DRC/cd_sch_sth_baseline_3_kato_katz_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -279,10 +279,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>3. SCH/STH - Kato Katz V2</t>
-  </si>
-  <si>
-    <t>cd_sch_sth_baseline_3_kato_katz_202202_v2</t>
+    <t>3. SCH/STH - Kato Katz V2.1</t>
+  </si>
+  <si>
+    <t>cd_sch_sth_baseline_3_kato_katz_202202_v2_1</t>
   </si>
   <si>
     <t>French</t>
@@ -293,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -338,6 +338,141 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -345,141 +480,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -502,43 +502,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,84 +670,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -647,36 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,15 +701,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,11 +731,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,17 +753,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,153 +782,168 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1340,7 +1340,7 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2044,14 +2044,14 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="44.1259259259259" customWidth="1"/>
-    <col min="2" max="2" width="36.1259259259259" customWidth="1"/>
+    <col min="2" max="2" width="41.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
